--- a/Code/Results/Cases/Case_0_204/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_204/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>11.18654378138115</v>
+        <v>9.745093707308747</v>
       </c>
       <c r="D2">
-        <v>12.23377831081211</v>
+        <v>6.124777040330944</v>
       </c>
       <c r="E2">
-        <v>5.21898017098525</v>
+        <v>10.47817040029796</v>
       </c>
       <c r="F2">
-        <v>106.8969164018939</v>
+        <v>75.77093397152981</v>
       </c>
       <c r="G2">
-        <v>1.767769353880366</v>
+        <v>3.774403024172962</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>77.21400843636287</v>
+        <v>54.3707170343212</v>
       </c>
       <c r="J2">
-        <v>7.993388863379979</v>
+        <v>11.11286387404049</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -456,28 +456,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10.07799644815187</v>
+        <v>9.662239324252667</v>
       </c>
       <c r="D3">
-        <v>10.93561802152963</v>
+        <v>5.769004832868385</v>
       </c>
       <c r="E3">
-        <v>5.311056263342219</v>
+        <v>10.52228707718973</v>
       </c>
       <c r="F3">
-        <v>95.7997568844936</v>
+        <v>74.37906829206467</v>
       </c>
       <c r="G3">
-        <v>1.843528224886802</v>
+        <v>3.787280141940647</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>69.06312779616984</v>
+        <v>53.38159787536001</v>
       </c>
       <c r="J3">
-        <v>7.546205592333378</v>
+        <v>11.1319829196221</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>9.496876604309062</v>
+        <v>9.615180164469328</v>
       </c>
       <c r="D4">
-        <v>10.20445435764282</v>
+        <v>5.53955844595987</v>
       </c>
       <c r="E4">
-        <v>5.369483986761202</v>
+        <v>10.55103391700292</v>
       </c>
       <c r="F4">
-        <v>89.59699031945398</v>
+        <v>73.54854553398505</v>
       </c>
       <c r="G4">
-        <v>1.884032265334675</v>
+        <v>3.795522470186914</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>64.4914219861809</v>
+        <v>52.7917214693779</v>
       </c>
       <c r="J4">
-        <v>7.319747981778643</v>
+        <v>11.14684874608565</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>9.271098819562692</v>
+        <v>9.59696423617285</v>
       </c>
       <c r="D5">
-        <v>9.914553155014755</v>
+        <v>5.443309887457989</v>
       </c>
       <c r="E5">
-        <v>5.393864389550076</v>
+        <v>10.56316697648166</v>
       </c>
       <c r="F5">
-        <v>87.15203353462176</v>
+        <v>73.21649748359808</v>
       </c>
       <c r="G5">
-        <v>1.899663072012349</v>
+        <v>3.798966700085053</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>62.68548737708623</v>
+        <v>52.55596770579738</v>
       </c>
       <c r="J5">
-        <v>7.235600856262982</v>
+        <v>11.15368510103611</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -561,28 +561,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>9.234138905027173</v>
+        <v>9.593997563736835</v>
       </c>
       <c r="D6">
-        <v>9.866743497032381</v>
+        <v>5.42716266059076</v>
       </c>
       <c r="E6">
-        <v>5.397948966789452</v>
+        <v>10.5652069761595</v>
       </c>
       <c r="F6">
-        <v>86.74974353726434</v>
+        <v>73.16175713676499</v>
       </c>
       <c r="G6">
-        <v>1.902217578599191</v>
+        <v>3.799543799263567</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>62.38810565035564</v>
+        <v>52.51710711100013</v>
       </c>
       <c r="J6">
-        <v>7.222045643253177</v>
+        <v>11.1548670582406</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -596,28 +596,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>9.493793547556642</v>
+        <v>9.61493060544929</v>
       </c>
       <c r="D7">
-        <v>10.20051961193288</v>
+        <v>5.538271497447117</v>
       </c>
       <c r="E7">
-        <v>5.369810394537399</v>
+        <v>10.55119585147803</v>
       </c>
       <c r="F7">
-        <v>89.56374433461502</v>
+        <v>73.5440410797094</v>
       </c>
       <c r="G7">
-        <v>1.884246042636559</v>
+        <v>3.795568573137278</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>64.46688120231573</v>
+        <v>52.78852297507544</v>
       </c>
       <c r="J7">
-        <v>7.318583742500939</v>
+        <v>11.14693780210592</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -631,28 +631,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>10.75481521281706</v>
+        <v>9.71573575595376</v>
       </c>
       <c r="D8">
-        <v>11.76509413696786</v>
+        <v>6.004399106183274</v>
       </c>
       <c r="E8">
-        <v>5.25041757711016</v>
+        <v>10.4930382909513</v>
       </c>
       <c r="F8">
-        <v>102.8819915698444</v>
+        <v>75.28622669179379</v>
       </c>
       <c r="G8">
-        <v>1.795690683276842</v>
+        <v>3.778773980752447</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>74.26861657844405</v>
+        <v>54.02619363876978</v>
       </c>
       <c r="J8">
-        <v>7.825786753598628</v>
+        <v>11.11880247665376</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -666,28 +666,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>10.75481521281706</v>
+        <v>9.943504903071791</v>
       </c>
       <c r="D9">
-        <v>11.76509413696786</v>
+        <v>6.830715326529331</v>
       </c>
       <c r="E9">
-        <v>5.25041757711016</v>
+        <v>10.39209592423021</v>
       </c>
       <c r="F9">
-        <v>102.8819915698444</v>
+        <v>78.87839180131722</v>
       </c>
       <c r="G9">
-        <v>1.795690683276842</v>
+        <v>3.748457367798139</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>74.26861657844405</v>
+        <v>56.58086265698302</v>
       </c>
       <c r="J9">
-        <v>7.825786753598628</v>
+        <v>11.0887910537717</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>10.75481521281706</v>
+        <v>10.12886571465586</v>
       </c>
       <c r="D10">
-        <v>11.76509413696786</v>
+        <v>7.384102873869298</v>
       </c>
       <c r="E10">
-        <v>5.25041757711016</v>
+        <v>10.32584071680541</v>
       </c>
       <c r="F10">
-        <v>102.8819915698444</v>
+        <v>81.60393589491784</v>
       </c>
       <c r="G10">
-        <v>1.795690683276842</v>
+        <v>3.72771294316436</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>74.26861657844405</v>
+        <v>58.52092641553082</v>
       </c>
       <c r="J10">
-        <v>7.825786753598628</v>
+        <v>11.08257185777963</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>10.75481521281706</v>
+        <v>10.21700737938565</v>
       </c>
       <c r="D11">
-        <v>11.76509413696786</v>
+        <v>7.624243530372006</v>
       </c>
       <c r="E11">
-        <v>5.25041757711016</v>
+        <v>10.29739916912431</v>
       </c>
       <c r="F11">
-        <v>102.8819915698444</v>
+        <v>82.85829445254977</v>
       </c>
       <c r="G11">
-        <v>1.795690683276842</v>
+        <v>3.718592747784793</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>74.26861657844405</v>
+        <v>59.41417038772855</v>
       </c>
       <c r="J11">
-        <v>7.825786753598628</v>
+        <v>11.08328661394533</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -771,28 +771,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>10.75481521281706</v>
+        <v>10.25092376370624</v>
       </c>
       <c r="D12">
-        <v>11.76509413696786</v>
+        <v>7.713519218975429</v>
       </c>
       <c r="E12">
-        <v>5.25041757711016</v>
+        <v>10.28687196960503</v>
       </c>
       <c r="F12">
-        <v>102.8819915698444</v>
+        <v>83.33502525232907</v>
       </c>
       <c r="G12">
-        <v>1.795690683276842</v>
+        <v>3.71518341576532</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>74.26861657844405</v>
+        <v>59.75371171721855</v>
       </c>
       <c r="J12">
-        <v>7.825786753598628</v>
+        <v>11.08407565828158</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -806,28 +806,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>10.75481521281706</v>
+        <v>10.2435954597304</v>
       </c>
       <c r="D13">
-        <v>11.76509413696786</v>
+        <v>7.694365796143801</v>
       </c>
       <c r="E13">
-        <v>5.25041757711016</v>
+        <v>10.28912840223253</v>
       </c>
       <c r="F13">
-        <v>102.8819915698444</v>
+        <v>83.23228110571831</v>
       </c>
       <c r="G13">
-        <v>1.795690683276842</v>
+        <v>3.715915726828357</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>74.26861657844405</v>
+        <v>59.68053191518141</v>
       </c>
       <c r="J13">
-        <v>7.825786753598628</v>
+        <v>11.08388252751292</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -841,28 +841,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>10.75481521281706</v>
+        <v>10.2197869586147</v>
       </c>
       <c r="D14">
-        <v>11.76509413696786</v>
+        <v>7.631621517645419</v>
       </c>
       <c r="E14">
-        <v>5.25041757711016</v>
+        <v>10.29652822697137</v>
       </c>
       <c r="F14">
-        <v>102.8819915698444</v>
+        <v>82.89748261390223</v>
       </c>
       <c r="G14">
-        <v>1.795690683276842</v>
+        <v>3.718311379616738</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>74.26861657844405</v>
+        <v>59.44208020338228</v>
       </c>
       <c r="J14">
-        <v>7.825786753598628</v>
+        <v>11.08334108933997</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -876,28 +876,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>10.75481521281706</v>
+        <v>10.20527344775331</v>
       </c>
       <c r="D15">
-        <v>11.76509413696786</v>
+        <v>7.592972880267729</v>
       </c>
       <c r="E15">
-        <v>5.25041757711016</v>
+        <v>10.30109244287011</v>
       </c>
       <c r="F15">
-        <v>102.8819915698444</v>
+        <v>82.69262434288707</v>
       </c>
       <c r="G15">
-        <v>1.795690683276842</v>
+        <v>3.719784516354549</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>74.26861657844405</v>
+        <v>59.29618234928699</v>
       </c>
       <c r="J15">
-        <v>7.825786753598628</v>
+        <v>11.0830772135281</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -911,28 +911,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>10.75481521281706</v>
+        <v>10.12318145754892</v>
       </c>
       <c r="D16">
-        <v>11.76509413696786</v>
+        <v>7.368176296239164</v>
       </c>
       <c r="E16">
-        <v>5.25041757711016</v>
+        <v>10.32773350864055</v>
       </c>
       <c r="F16">
-        <v>102.8819915698444</v>
+        <v>81.52222181430511</v>
       </c>
       <c r="G16">
-        <v>1.795690683276842</v>
+        <v>3.72831523499805</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>74.26861657844405</v>
+        <v>58.46274453522109</v>
       </c>
       <c r="J16">
-        <v>7.825786753598628</v>
+        <v>11.08259720683154</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -946,28 +946,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>10.75481521281706</v>
+        <v>10.07379202452447</v>
       </c>
       <c r="D17">
-        <v>11.76509413696786</v>
+        <v>7.227304585281816</v>
       </c>
       <c r="E17">
-        <v>5.25041757711016</v>
+        <v>10.34451104346203</v>
       </c>
       <c r="F17">
-        <v>102.8819915698444</v>
+        <v>80.80767460002799</v>
       </c>
       <c r="G17">
-        <v>1.795690683276842</v>
+        <v>3.733628769281463</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>74.26861657844405</v>
+        <v>57.95401673552868</v>
       </c>
       <c r="J17">
-        <v>7.825786753598628</v>
+        <v>11.08321662796151</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -981,28 +981,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>10.75481521281706</v>
+        <v>10.04574476611089</v>
       </c>
       <c r="D18">
-        <v>11.76509413696786</v>
+        <v>7.145186572750833</v>
       </c>
       <c r="E18">
-        <v>5.25041757711016</v>
+        <v>10.35432095973894</v>
       </c>
       <c r="F18">
-        <v>102.8819915698444</v>
+        <v>80.39807039886216</v>
       </c>
       <c r="G18">
-        <v>1.795690683276842</v>
+        <v>3.736714845111007</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>74.26861657844405</v>
+        <v>57.6624313060583</v>
       </c>
       <c r="J18">
-        <v>7.825786753598628</v>
+        <v>11.08390594141759</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1016,28 +1016,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>10.75481521281706</v>
+        <v>10.03631061855249</v>
       </c>
       <c r="D19">
-        <v>11.76509413696786</v>
+        <v>7.11719504174161</v>
       </c>
       <c r="E19">
-        <v>5.25041757711016</v>
+        <v>10.35766993268895</v>
       </c>
       <c r="F19">
-        <v>102.8819915698444</v>
+        <v>80.25963423489407</v>
       </c>
       <c r="G19">
-        <v>1.795690683276842</v>
+        <v>3.737764904528253</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>74.26861657844405</v>
+        <v>57.56388869401451</v>
       </c>
       <c r="J19">
-        <v>7.825786753598628</v>
+        <v>11.08419626508326</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>10.75481521281706</v>
+        <v>10.07901240303082</v>
       </c>
       <c r="D20">
-        <v>11.76509413696786</v>
+        <v>7.242413627575024</v>
       </c>
       <c r="E20">
-        <v>5.25041757711016</v>
+        <v>10.34270850373925</v>
       </c>
       <c r="F20">
-        <v>102.8819915698444</v>
+        <v>80.88359868897777</v>
       </c>
       <c r="G20">
-        <v>1.795690683276842</v>
+        <v>3.733060051668751</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>74.26861657844405</v>
+        <v>58.00806781694335</v>
       </c>
       <c r="J20">
-        <v>7.825786753598628</v>
+        <v>11.08311615804404</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>10.75481521281706</v>
+        <v>10.22676554807875</v>
       </c>
       <c r="D21">
-        <v>11.76509413696786</v>
+        <v>7.65009602046127</v>
       </c>
       <c r="E21">
-        <v>5.25041757711016</v>
+        <v>10.29434813381771</v>
       </c>
       <c r="F21">
-        <v>102.8819915698444</v>
+        <v>82.99577674468519</v>
       </c>
       <c r="G21">
-        <v>1.795690683276842</v>
+        <v>3.717606526414329</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>74.26861657844405</v>
+        <v>59.51208618775469</v>
       </c>
       <c r="J21">
-        <v>7.825786753598628</v>
+        <v>11.08348598370274</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1121,28 +1121,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>10.75481521281706</v>
+        <v>10.32646758553799</v>
       </c>
       <c r="D22">
-        <v>11.76509413696786</v>
+        <v>7.906867710480349</v>
       </c>
       <c r="E22">
-        <v>5.25041757711016</v>
+        <v>10.26415765420283</v>
       </c>
       <c r="F22">
-        <v>102.8819915698444</v>
+        <v>84.38615542547313</v>
       </c>
       <c r="G22">
-        <v>1.795690683276842</v>
+        <v>3.707764291430614</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>74.26861657844405</v>
+        <v>60.50245742614532</v>
       </c>
       <c r="J22">
-        <v>7.825786753598628</v>
+        <v>11.0867533595942</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1156,28 +1156,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>10.75481521281706</v>
+        <v>10.27297126560166</v>
       </c>
       <c r="D23">
-        <v>11.76509413696786</v>
+        <v>7.77070560453545</v>
       </c>
       <c r="E23">
-        <v>5.25041757711016</v>
+        <v>10.28014173241105</v>
       </c>
       <c r="F23">
-        <v>102.8819915698444</v>
+        <v>83.64328534424968</v>
       </c>
       <c r="G23">
-        <v>1.795690683276842</v>
+        <v>3.712994132643301</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>74.26861657844405</v>
+        <v>59.97327883111018</v>
       </c>
       <c r="J23">
-        <v>7.825786753598628</v>
+        <v>11.08472972401743</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1191,28 +1191,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>10.75481521281706</v>
+        <v>10.07665118710931</v>
       </c>
       <c r="D24">
-        <v>11.76509413696786</v>
+        <v>7.235586346631703</v>
       </c>
       <c r="E24">
-        <v>5.25041757711016</v>
+        <v>10.34352292013527</v>
       </c>
       <c r="F24">
-        <v>102.8819915698444</v>
+        <v>80.84926964834609</v>
       </c>
       <c r="G24">
-        <v>1.795690683276842</v>
+        <v>3.733317071459028</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>74.26861657844405</v>
+        <v>57.98362853505449</v>
       </c>
       <c r="J24">
-        <v>7.825786753598628</v>
+        <v>11.08316054331278</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1226,28 +1226,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>10.75481521281706</v>
+        <v>9.87869369486878</v>
       </c>
       <c r="D25">
-        <v>11.76509413696786</v>
+        <v>6.616610394786165</v>
       </c>
       <c r="E25">
-        <v>5.25041757711016</v>
+        <v>10.41800906575125</v>
       </c>
       <c r="F25">
-        <v>102.8819915698444</v>
+        <v>77.88994847957123</v>
       </c>
       <c r="G25">
-        <v>1.795690683276842</v>
+        <v>3.756385330369203</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>74.26861657844405</v>
+        <v>55.87760935727288</v>
       </c>
       <c r="J25">
-        <v>7.825786753598628</v>
+        <v>11.09416565091464</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_204/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_204/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.745093707308747</v>
+        <v>11.18654378138116</v>
       </c>
       <c r="D2">
-        <v>6.124777040330944</v>
+        <v>12.23377831081208</v>
       </c>
       <c r="E2">
-        <v>10.47817040029796</v>
+        <v>5.218980170985161</v>
       </c>
       <c r="F2">
-        <v>75.77093397152981</v>
+        <v>106.8969164018937</v>
       </c>
       <c r="G2">
-        <v>3.774403024172962</v>
+        <v>1.767769353880353</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>54.3707170343212</v>
+        <v>77.2140084363627</v>
       </c>
       <c r="J2">
-        <v>11.11286387404049</v>
+        <v>7.993388863379966</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -456,28 +456,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9.662239324252667</v>
+        <v>10.07799644815193</v>
       </c>
       <c r="D3">
-        <v>5.769004832868385</v>
+        <v>10.9356180215297</v>
       </c>
       <c r="E3">
-        <v>10.52228707718973</v>
+        <v>5.311056263342286</v>
       </c>
       <c r="F3">
-        <v>74.37906829206467</v>
+        <v>95.79975688449375</v>
       </c>
       <c r="G3">
-        <v>3.787280141940647</v>
+        <v>1.843528224886913</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>53.38159787536001</v>
+        <v>69.06312779616998</v>
       </c>
       <c r="J3">
-        <v>11.1319829196221</v>
+        <v>7.546205592333358</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>9.615180164469328</v>
+        <v>9.496876604309094</v>
       </c>
       <c r="D4">
-        <v>5.53955844595987</v>
+        <v>10.20445435764301</v>
       </c>
       <c r="E4">
-        <v>10.55103391700292</v>
+        <v>5.369483986761235</v>
       </c>
       <c r="F4">
-        <v>73.54854553398505</v>
+        <v>89.59699031945435</v>
       </c>
       <c r="G4">
-        <v>3.795522470186914</v>
+        <v>1.884032265334681</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>52.7917214693779</v>
+        <v>64.49142198618124</v>
       </c>
       <c r="J4">
-        <v>11.14684874608565</v>
+        <v>7.319747981778598</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>9.59696423617285</v>
+        <v>9.271098819562731</v>
       </c>
       <c r="D5">
-        <v>5.443309887457989</v>
+        <v>9.914553155014852</v>
       </c>
       <c r="E5">
-        <v>10.56316697648166</v>
+        <v>5.39386438955004</v>
       </c>
       <c r="F5">
-        <v>73.21649748359808</v>
+        <v>87.15203353462239</v>
       </c>
       <c r="G5">
-        <v>3.798966700085053</v>
+        <v>1.89966307201223</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>52.55596770579738</v>
+        <v>62.68548737708668</v>
       </c>
       <c r="J5">
-        <v>11.15368510103611</v>
+        <v>7.235600856262993</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -561,28 +561,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>9.593997563736835</v>
+        <v>9.234138905027095</v>
       </c>
       <c r="D6">
-        <v>5.42716266059076</v>
+        <v>9.866743497032292</v>
       </c>
       <c r="E6">
-        <v>10.5652069761595</v>
+        <v>5.397948966789434</v>
       </c>
       <c r="F6">
-        <v>73.16175713676499</v>
+        <v>86.74974353726456</v>
       </c>
       <c r="G6">
-        <v>3.799543799263567</v>
+        <v>1.90221757859923</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>52.51710711100013</v>
+        <v>62.38810565035583</v>
       </c>
       <c r="J6">
-        <v>11.1548670582406</v>
+        <v>7.222045643253204</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -596,28 +596,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>9.61493060544929</v>
+        <v>9.493793547556692</v>
       </c>
       <c r="D7">
-        <v>5.538271497447117</v>
+        <v>10.20051961193274</v>
       </c>
       <c r="E7">
-        <v>10.55119585147803</v>
+        <v>5.369810394537295</v>
       </c>
       <c r="F7">
-        <v>73.5440410797094</v>
+        <v>89.56374433461494</v>
       </c>
       <c r="G7">
-        <v>3.795568573137278</v>
+        <v>1.884246042636411</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>52.78852297507544</v>
+        <v>64.46688120231566</v>
       </c>
       <c r="J7">
-        <v>11.14693780210592</v>
+        <v>7.318583742500957</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -631,28 +631,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>9.71573575595376</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D8">
-        <v>6.004399106183274</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E8">
-        <v>10.4930382909513</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F8">
-        <v>75.28622669179379</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G8">
-        <v>3.778773980752447</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>54.02619363876978</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J8">
-        <v>11.11880247665376</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -666,28 +666,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>9.943504903071791</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D9">
-        <v>6.830715326529331</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E9">
-        <v>10.39209592423021</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F9">
-        <v>78.87839180131722</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G9">
-        <v>3.748457367798139</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>56.58086265698302</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J9">
-        <v>11.0887910537717</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>10.12886571465586</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D10">
-        <v>7.384102873869298</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E10">
-        <v>10.32584071680541</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F10">
-        <v>81.60393589491784</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G10">
-        <v>3.72771294316436</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>58.52092641553082</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J10">
-        <v>11.08257185777963</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>10.21700737938565</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D11">
-        <v>7.624243530372006</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E11">
-        <v>10.29739916912431</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F11">
-        <v>82.85829445254977</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G11">
-        <v>3.718592747784793</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>59.41417038772855</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J11">
-        <v>11.08328661394533</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -771,28 +771,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>10.25092376370624</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D12">
-        <v>7.713519218975429</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E12">
-        <v>10.28687196960503</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F12">
-        <v>83.33502525232907</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G12">
-        <v>3.71518341576532</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>59.75371171721855</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J12">
-        <v>11.08407565828158</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -806,28 +806,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>10.2435954597304</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D13">
-        <v>7.694365796143801</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E13">
-        <v>10.28912840223253</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F13">
-        <v>83.23228110571831</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G13">
-        <v>3.715915726828357</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>59.68053191518141</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J13">
-        <v>11.08388252751292</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -841,28 +841,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>10.2197869586147</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D14">
-        <v>7.631621517645419</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E14">
-        <v>10.29652822697137</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F14">
-        <v>82.89748261390223</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G14">
-        <v>3.718311379616738</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>59.44208020338228</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J14">
-        <v>11.08334108933997</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -876,28 +876,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>10.20527344775331</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D15">
-        <v>7.592972880267729</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E15">
-        <v>10.30109244287011</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F15">
-        <v>82.69262434288707</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G15">
-        <v>3.719784516354549</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>59.29618234928699</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J15">
-        <v>11.0830772135281</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -911,28 +911,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>10.12318145754892</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D16">
-        <v>7.368176296239164</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E16">
-        <v>10.32773350864055</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F16">
-        <v>81.52222181430511</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G16">
-        <v>3.72831523499805</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>58.46274453522109</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J16">
-        <v>11.08259720683154</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -946,28 +946,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>10.07379202452447</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D17">
-        <v>7.227304585281816</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E17">
-        <v>10.34451104346203</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F17">
-        <v>80.80767460002799</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G17">
-        <v>3.733628769281463</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>57.95401673552868</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J17">
-        <v>11.08321662796151</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -981,28 +981,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>10.04574476611089</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D18">
-        <v>7.145186572750833</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E18">
-        <v>10.35432095973894</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F18">
-        <v>80.39807039886216</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G18">
-        <v>3.736714845111007</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>57.6624313060583</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J18">
-        <v>11.08390594141759</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1016,28 +1016,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>10.03631061855249</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D19">
-        <v>7.11719504174161</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E19">
-        <v>10.35766993268895</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F19">
-        <v>80.25963423489407</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G19">
-        <v>3.737764904528253</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>57.56388869401451</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J19">
-        <v>11.08419626508326</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>10.07901240303082</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D20">
-        <v>7.242413627575024</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E20">
-        <v>10.34270850373925</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F20">
-        <v>80.88359868897777</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G20">
-        <v>3.733060051668751</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>58.00806781694335</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J20">
-        <v>11.08311615804404</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>10.22676554807875</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D21">
-        <v>7.65009602046127</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E21">
-        <v>10.29434813381771</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F21">
-        <v>82.99577674468519</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G21">
-        <v>3.717606526414329</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>59.51208618775469</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J21">
-        <v>11.08348598370274</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1121,28 +1121,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>10.32646758553799</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D22">
-        <v>7.906867710480349</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E22">
-        <v>10.26415765420283</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F22">
-        <v>84.38615542547313</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G22">
-        <v>3.707764291430614</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>60.50245742614532</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J22">
-        <v>11.0867533595942</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1156,28 +1156,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>10.27297126560166</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D23">
-        <v>7.77070560453545</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E23">
-        <v>10.28014173241105</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F23">
-        <v>83.64328534424968</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G23">
-        <v>3.712994132643301</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>59.97327883111018</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J23">
-        <v>11.08472972401743</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1191,28 +1191,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>10.07665118710931</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D24">
-        <v>7.235586346631703</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E24">
-        <v>10.34352292013527</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F24">
-        <v>80.84926964834609</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G24">
-        <v>3.733317071459028</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>57.98362853505449</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J24">
-        <v>11.08316054331278</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1226,28 +1226,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>9.87869369486878</v>
+        <v>10.75481521281711</v>
       </c>
       <c r="D25">
-        <v>6.616610394786165</v>
+        <v>11.76509413696772</v>
       </c>
       <c r="E25">
-        <v>10.41800906575125</v>
+        <v>5.250417577110135</v>
       </c>
       <c r="F25">
-        <v>77.88994847957123</v>
+        <v>102.8819915698445</v>
       </c>
       <c r="G25">
-        <v>3.756385330369203</v>
+        <v>1.795690683276985</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>55.87760935727288</v>
+        <v>74.26861657844407</v>
       </c>
       <c r="J25">
-        <v>11.09416565091464</v>
+        <v>7.825786753598618</v>
       </c>
       <c r="L25">
         <v>0</v>
